--- a/12 teste mesa.xlsx
+++ b/12 teste mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backup\Desktop\codigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0EE798-1C9D-41E6-A29A-7E8430346641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8D56E-65E1-4612-9016-0B02454F1845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6768" yWindow="1812" windowWidth="12084" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -372,14 +372,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
